--- a/medicine/Enfance/Paul_de_Sémant/Paul_de_Sémant.xlsx
+++ b/medicine/Enfance/Paul_de_Sémant/Paul_de_Sémant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_de_S%C3%A9mant</t>
+          <t>Paul_de_Sémant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul de Sémant, de son vrai nom Paul Cousturier[1],[2], né le 18 novembre 1855 à Neuvy-le-Roi (Indre-et-Loire) et mort en 1915, est un auteur et un illustrateur de livres pour enfants et pour la presse humoristique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul de Sémant, de son vrai nom Paul Cousturier né le 18 novembre 1855 à Neuvy-le-Roi (Indre-et-Loire) et mort en 1915, est un auteur et un illustrateur de livres pour enfants et pour la presse humoristique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_de_S%C3%A9mant</t>
+          <t>Paul_de_Sémant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir quitté l'armée, Paul Cousturier vit d'expédients[3].
-Pendant la crise boulangiste, il est l'un des principaux animateurs des comités socialistes-boulangistes du 13e arrondissement de Paris. En 1889-1890, il dessine et dirige La Bombe, un hebdomadaire satirique boulangiste financé par le Comité républicain national[3].
-Lors des élections municipales de 1890, le député Paulin-Méry choisit Cousturier pour être le candidat des boulangistes dans le quartier de la Maison-Blanche face au conseiller sortant, le radical Ernest Rousselle. L'avocat Nicolas Hornbostel, initialement pressenti avant d'être écarté pour avoir refusé de payer 5 000 francs, soutient alors la candidature dissidente de Fénoul, qui mène campagne avec violence contre Cousturier, qu'il accuse d'avoir tenu une maison close à Anvers et d'avoir commis des escroqueries[4]. Avec 2 075 voix contre 2 576 au premier tour, Cousturier parvient à mettre Rousselle en ballotage, mais il est battu au second tour (avec 2 253 suffrages, contre 2 939 au sortant)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir quitté l'armée, Paul Cousturier vit d'expédients.
+Pendant la crise boulangiste, il est l'un des principaux animateurs des comités socialistes-boulangistes du 13e arrondissement de Paris. En 1889-1890, il dessine et dirige La Bombe, un hebdomadaire satirique boulangiste financé par le Comité républicain national.
+Lors des élections municipales de 1890, le député Paulin-Méry choisit Cousturier pour être le candidat des boulangistes dans le quartier de la Maison-Blanche face au conseiller sortant, le radical Ernest Rousselle. L'avocat Nicolas Hornbostel, initialement pressenti avant d'être écarté pour avoir refusé de payer 5 000 francs, soutient alors la candidature dissidente de Fénoul, qui mène campagne avec violence contre Cousturier, qu'il accuse d'avoir tenu une maison close à Anvers et d'avoir commis des escroqueries. Avec 2 075 voix contre 2 576 au premier tour, Cousturier parvient à mettre Rousselle en ballotage, mais il est battu au second tour (avec 2 253 suffrages, contre 2 939 au sortant).
 Paul de Sémant a illustré des livres du capitaine Danrit et de Théodore Cahu. Il est également l'auteur du titre de La Vie en culotte rouge et a collaboré à la revue Le Monde moderne.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_de_S%C3%A9mant</t>
+          <t>Paul_de_Sémant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Texte de Paul de Sémant
 Deux enfants sous la Révolution (1780-1797), illustrations de Clérice, Paris, Flammarion
